--- a/Code/Results/Cases/Case_4_205/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_205/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.364604901904329</v>
+        <v>1.162124713418109</v>
       </c>
       <c r="C2">
-        <v>0.5903552204607649</v>
+        <v>0.6102799498593754</v>
       </c>
       <c r="D2">
-        <v>0.372116972184088</v>
+        <v>0.5745248940500431</v>
       </c>
       <c r="E2">
-        <v>0.1165094176265953</v>
+        <v>0.1959789392898088</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008574074889844407</v>
+        <v>0.00264742864926391</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.716007722960541</v>
+        <v>2.458167271194625</v>
       </c>
       <c r="J2">
-        <v>0.03831898121059751</v>
+        <v>0.07560126133407863</v>
       </c>
       <c r="K2">
-        <v>1.943387719375721</v>
+        <v>1.769038056958266</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.61034076135617</v>
+        <v>0.6912718120050485</v>
       </c>
       <c r="N2">
-        <v>2.982337935449635</v>
+        <v>4.47231331304269</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.19878938954426</v>
+        <v>1.127532595743162</v>
       </c>
       <c r="C3">
-        <v>0.5292407559581136</v>
+        <v>0.5979660578902894</v>
       </c>
       <c r="D3">
-        <v>0.3420187110217512</v>
+        <v>0.5703747096809337</v>
       </c>
       <c r="E3">
-        <v>0.1080187594807498</v>
+        <v>0.194994247533419</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008656124854597477</v>
+        <v>0.002652472904587884</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.635738417129772</v>
+        <v>2.442424863397079</v>
       </c>
       <c r="J3">
-        <v>0.0361994965978738</v>
+        <v>0.07548774947014181</v>
       </c>
       <c r="K3">
-        <v>1.717060702409952</v>
+        <v>1.722387080737406</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5463633693281906</v>
+        <v>0.6794398837051716</v>
       </c>
       <c r="N3">
-        <v>2.939457120811966</v>
+        <v>4.460522937760828</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.099063193816136</v>
+        <v>1.107040958900626</v>
       </c>
       <c r="C4">
-        <v>0.4927395449276162</v>
+        <v>0.5907390937300647</v>
       </c>
       <c r="D4">
-        <v>0.3241263736683493</v>
+        <v>0.568096960883139</v>
       </c>
       <c r="E4">
-        <v>0.1029876806046772</v>
+        <v>0.1944768266509378</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008707899565831845</v>
+        <v>0.002655732952265429</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.58864016009656</v>
+        <v>2.433524813918652</v>
       </c>
       <c r="J4">
-        <v>0.03495523659968569</v>
+        <v>0.07544756848385248</v>
       </c>
       <c r="K4">
-        <v>1.581214224338794</v>
+        <v>1.69482752102266</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5080771641335247</v>
+        <v>0.6725640487035918</v>
       </c>
       <c r="N4">
-        <v>2.91560263940184</v>
+        <v>4.454047114754729</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.058891665206886</v>
+        <v>1.098878206224867</v>
       </c>
       <c r="C5">
-        <v>0.4780963212576808</v>
+        <v>0.5878777411807334</v>
       </c>
       <c r="D5">
-        <v>0.3169707766629131</v>
+        <v>0.5672367437112769</v>
       </c>
       <c r="E5">
-        <v>0.1009796851168723</v>
+        <v>0.1942878899563212</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008729363447964413</v>
+        <v>0.002657102538213696</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.569956011240521</v>
+        <v>2.430090279845572</v>
       </c>
       <c r="J5">
-        <v>0.03446153318571987</v>
+        <v>0.07543861634200155</v>
       </c>
       <c r="K5">
-        <v>1.526557320222537</v>
+        <v>1.683868834619346</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4927014586634044</v>
+        <v>0.6698597686181031</v>
       </c>
       <c r="N5">
-        <v>2.906465273354513</v>
+        <v>4.451599767902593</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05224788913938</v>
+        <v>1.09753411735565</v>
       </c>
       <c r="C6">
-        <v>0.4756780752523184</v>
+        <v>0.5874076635872996</v>
       </c>
       <c r="D6">
-        <v>0.315790450671102</v>
+        <v>0.5670980105391266</v>
       </c>
       <c r="E6">
-        <v>0.1006487081427636</v>
+        <v>0.1942578406946147</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008732949969633191</v>
+        <v>0.002657332442407526</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.56688310555738</v>
+        <v>2.429531585256996</v>
       </c>
       <c r="J6">
-        <v>0.03438033170473886</v>
+        <v>0.07543757811788154</v>
       </c>
       <c r="K6">
-        <v>1.517521664555062</v>
+        <v>1.68206556740472</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.490161325053819</v>
+        <v>0.669416620450825</v>
       </c>
       <c r="N6">
-        <v>2.90498219060629</v>
+        <v>4.451204948965682</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.098519604470567</v>
+        <v>1.106930113408595</v>
       </c>
       <c r="C7">
-        <v>0.4925411575550527</v>
+        <v>0.5907001659784612</v>
       </c>
       <c r="D7">
-        <v>0.32402933688671</v>
+        <v>0.5680850844665883</v>
       </c>
       <c r="E7">
-        <v>0.1029604337355963</v>
+        <v>0.1944741898531817</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008708187537032285</v>
+        <v>0.002655751256557509</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.588386171326903</v>
+        <v>2.433477716317014</v>
       </c>
       <c r="J7">
-        <v>0.03494852560701744</v>
+        <v>0.07544741770087526</v>
       </c>
       <c r="K7">
-        <v>1.580474365920594</v>
+        <v>1.694678627589212</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5078689166659345</v>
+        <v>0.6725271825268493</v>
       </c>
       <c r="N7">
-        <v>2.915477095926363</v>
+        <v>4.454013333733499</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.306963385142467</v>
+        <v>1.150041862363878</v>
       </c>
       <c r="C8">
-        <v>0.5690542219998918</v>
+        <v>0.6059646815511996</v>
       </c>
       <c r="D8">
-        <v>0.3616093645404135</v>
+        <v>0.5730377501395481</v>
       </c>
       <c r="E8">
-        <v>0.1135417528304323</v>
+        <v>0.1956213176093264</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008602084986065739</v>
+        <v>0.002649134191975339</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.687850965042017</v>
+        <v>2.452580162279517</v>
       </c>
       <c r="J8">
-        <v>0.03757568976233472</v>
+        <v>0.07555599615478314</v>
       </c>
       <c r="K8">
-        <v>1.864650835890842</v>
+        <v>1.752727360097566</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5880593701139887</v>
+        <v>0.6871113297677098</v>
       </c>
       <c r="N8">
-        <v>2.967014747371422</v>
+        <v>4.468089281431531</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.735087453610362</v>
+        <v>1.240541762173876</v>
       </c>
       <c r="C9">
-        <v>0.7285144113362492</v>
+        <v>0.6385606024073809</v>
       </c>
       <c r="D9">
-        <v>0.4405782093290895</v>
+        <v>0.5848987635920651</v>
       </c>
       <c r="E9">
-        <v>0.1359173459782994</v>
+        <v>0.1985632732808718</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008404385997692362</v>
+        <v>0.002637443983294372</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.90231158487633</v>
+        <v>2.496133012589397</v>
       </c>
       <c r="J9">
-        <v>0.04323146856819449</v>
+        <v>0.07600321589249859</v>
       </c>
       <c r="K9">
-        <v>2.450793200164753</v>
+        <v>1.875200642420879</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7544258994832092</v>
+        <v>0.7188065256581098</v>
       </c>
       <c r="N9">
-        <v>3.089640308864034</v>
+        <v>4.501771262172582</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.065820512364212</v>
+        <v>1.31070448729696</v>
       </c>
       <c r="C10">
-        <v>0.8534367231709723</v>
+        <v>0.6641541574429368</v>
       </c>
       <c r="D10">
-        <v>0.5027567832911188</v>
+        <v>0.5949287013381479</v>
       </c>
       <c r="E10">
-        <v>0.1536271790533661</v>
+        <v>0.2011483484733496</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008264368894944307</v>
+        <v>0.002629630176996688</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.074900068606482</v>
+        <v>2.531874232570885</v>
       </c>
       <c r="J10">
-        <v>0.04777290194582307</v>
+        <v>0.07647491320045319</v>
       </c>
       <c r="K10">
-        <v>2.905447963243091</v>
+        <v>1.970511962620549</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8840912373848013</v>
+        <v>0.7439965303207217</v>
       </c>
       <c r="N10">
-        <v>3.195870295186666</v>
+        <v>4.530257327458656</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.220912272809585</v>
+        <v>1.343430230659578</v>
       </c>
       <c r="C11">
-        <v>0.9124730893670971</v>
+        <v>0.6761597198528193</v>
       </c>
       <c r="D11">
-        <v>0.5321875868742154</v>
+        <v>0.5997786515634402</v>
       </c>
       <c r="E11">
-        <v>0.1620309906959392</v>
+        <v>0.2024167233769276</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008201533355188629</v>
+        <v>0.002626241858194065</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.157491980427807</v>
+        <v>2.548953222665006</v>
       </c>
       <c r="J11">
-        <v>0.04994292459362271</v>
+        <v>0.07672065606275424</v>
       </c>
       <c r="K11">
-        <v>3.119134761469525</v>
+        <v>2.015043617248693</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9451738637952332</v>
+        <v>0.7558732878178915</v>
       </c>
       <c r="N11">
-        <v>3.248466827775104</v>
+        <v>4.544036200921113</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.280414803757139</v>
+        <v>1.355939460656543</v>
       </c>
       <c r="C12">
-        <v>0.9351959274862622</v>
+        <v>0.680758458163524</v>
       </c>
       <c r="D12">
-        <v>0.5435198860395758</v>
+        <v>0.6016565954921589</v>
       </c>
       <c r="E12">
-        <v>0.1652700521221888</v>
+        <v>0.2029103345794923</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008177836867291518</v>
+        <v>0.00262498254774525</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.189431826937437</v>
+        <v>2.55553896672113</v>
       </c>
       <c r="J12">
-        <v>0.05078154765783793</v>
+        <v>0.07681819837301873</v>
       </c>
       <c r="K12">
-        <v>3.201195104086764</v>
+        <v>2.032076387263999</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9686515285436315</v>
+        <v>0.7604310189881147</v>
       </c>
       <c r="N12">
-        <v>3.269071348228096</v>
+        <v>4.549372424515326</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.267563684810341</v>
+        <v>1.353240176383622</v>
       </c>
       <c r="C13">
-        <v>0.930284977018232</v>
+        <v>0.6797656980608622</v>
       </c>
       <c r="D13">
-        <v>0.5410705406963245</v>
+        <v>0.6012503055608249</v>
       </c>
       <c r="E13">
-        <v>0.1645698231364534</v>
+        <v>0.2028034345506384</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008182936413512644</v>
+        <v>0.002625252707692309</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.182522139045545</v>
+        <v>2.554115341469057</v>
       </c>
       <c r="J13">
-        <v>0.05060015127117623</v>
+        <v>0.07679699137192131</v>
       </c>
       <c r="K13">
-        <v>3.1834684811854</v>
+        <v>2.028400520037962</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9635789758650901</v>
+        <v>0.7594467467203572</v>
       </c>
       <c r="N13">
-        <v>3.264601962968271</v>
+        <v>4.548217896731501</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.225791445937261</v>
+        <v>1.344457030995898</v>
       </c>
       <c r="C14">
-        <v>0.9143348487199034</v>
+        <v>0.6765370070304755</v>
       </c>
       <c r="D14">
-        <v>0.5331160037467839</v>
+        <v>0.5999323215947641</v>
       </c>
       <c r="E14">
-        <v>0.1622962918175688</v>
+        <v>0.2024570663140679</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008199582023424806</v>
+        <v>0.002626137778224495</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.160105904268136</v>
+        <v>2.549492662722713</v>
       </c>
       <c r="J14">
-        <v>0.05001156845112575</v>
+        <v>0.07672859102497753</v>
       </c>
       <c r="K14">
-        <v>3.125862074524207</v>
+        <v>2.016441509987771</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9470981505128293</v>
+        <v>0.7562470462396718</v>
       </c>
       <c r="N14">
-        <v>3.250147747011084</v>
+        <v>4.544472838245213</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.200308717933524</v>
+        <v>1.33909231263732</v>
       </c>
       <c r="C15">
-        <v>0.9046143111400795</v>
+        <v>0.6745661857426342</v>
       </c>
       <c r="D15">
-        <v>0.5282687613605219</v>
+        <v>0.5991304082585316</v>
       </c>
       <c r="E15">
-        <v>0.1609112894528906</v>
+        <v>0.2022466390004567</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008209789889602571</v>
+        <v>0.002626683001846744</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.146464255192683</v>
+        <v>2.546676555884119</v>
       </c>
       <c r="J15">
-        <v>0.04965330394551515</v>
+        <v>0.07668727799593</v>
       </c>
       <c r="K15">
-        <v>3.090730114101859</v>
+        <v>2.009138381025764</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.937049803574638</v>
+        <v>0.7542949909843273</v>
       </c>
       <c r="N15">
-        <v>3.241385961549781</v>
+        <v>4.542194323817654</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.055786988026966</v>
+        <v>1.308582088349112</v>
       </c>
       <c r="C16">
-        <v>0.8496270864807798</v>
+        <v>0.6633768945457064</v>
       </c>
       <c r="D16">
-        <v>0.5008583448812658</v>
+        <v>0.594617531768904</v>
       </c>
       <c r="E16">
-        <v>0.1530855213199409</v>
+        <v>0.2010673181301286</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008268490513422108</v>
+        <v>0.002629854945245782</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.069590997413741</v>
+        <v>2.530774614708989</v>
       </c>
       <c r="J16">
-        <v>0.047633338845948</v>
+        <v>0.07645948072656594</v>
       </c>
       <c r="K16">
-        <v>2.891633931488457</v>
+        <v>1.967625404731223</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8801453020674614</v>
+        <v>0.7432287780865252</v>
       </c>
       <c r="N16">
-        <v>3.192524990636684</v>
+        <v>4.529373396126744</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.968387000771145</v>
+        <v>1.290072418563057</v>
       </c>
       <c r="C17">
-        <v>0.8164931424747977</v>
+        <v>0.6566057951290531</v>
       </c>
       <c r="D17">
-        <v>0.4843516732145474</v>
+        <v>0.5919226511128954</v>
       </c>
       <c r="E17">
-        <v>0.1483782211766496</v>
+        <v>0.200367523140244</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000830470418358775</v>
+        <v>0.002631843310201315</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.023528950021202</v>
+        <v>2.52122960226076</v>
       </c>
       <c r="J17">
-        <v>0.04642210716701101</v>
+        <v>0.07632771891403323</v>
       </c>
       <c r="K17">
-        <v>2.77135684191353</v>
+        <v>1.942459784699935</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8458039815545817</v>
+        <v>0.7365471351779362</v>
       </c>
       <c r="N17">
-        <v>3.163693708934488</v>
+        <v>4.521718645863018</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.918546518872631</v>
+        <v>1.27950220520259</v>
       </c>
       <c r="C18">
-        <v>0.7976399506371479</v>
+        <v>0.6527453795578424</v>
       </c>
       <c r="D18">
-        <v>0.4749637710253012</v>
+        <v>0.5903996633733186</v>
       </c>
       <c r="E18">
-        <v>0.1457029672603163</v>
+        <v>0.1999737167028321</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008325615872260045</v>
+        <v>0.002633002618361191</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.997414205888674</v>
+        <v>2.515816735528958</v>
       </c>
       <c r="J18">
-        <v>0.04573510974993411</v>
+        <v>0.07625486622374211</v>
       </c>
       <c r="K18">
-        <v>2.702812194122629</v>
+        <v>1.928095646162234</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8262461340228171</v>
+        <v>0.732743334500725</v>
       </c>
       <c r="N18">
-        <v>3.147507942737121</v>
+        <v>4.517393028079198</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.901742177590364</v>
+        <v>1.275936362043211</v>
       </c>
       <c r="C19">
-        <v>0.7912903129662823</v>
+        <v>0.6514441638880442</v>
       </c>
       <c r="D19">
-        <v>0.4718027959528115</v>
+        <v>0.5898886475659424</v>
       </c>
       <c r="E19">
-        <v>0.1448025206434487</v>
+        <v>0.199841873863388</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008332711117754789</v>
+        <v>0.002633397832424271</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.988635079770816</v>
+        <v>2.513997275163817</v>
       </c>
       <c r="J19">
-        <v>0.04550411071739546</v>
+        <v>0.07623070324305559</v>
       </c>
       <c r="K19">
-        <v>2.679708892583534</v>
+        <v>1.92325114419063</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8196562716616498</v>
+        <v>0.7314621774949188</v>
       </c>
       <c r="N19">
-        <v>3.142093863346531</v>
+        <v>4.515941691289953</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.977645685094785</v>
+        <v>1.292034929410875</v>
       </c>
       <c r="C20">
-        <v>0.8199987960211956</v>
+        <v>0.6573230545041042</v>
       </c>
       <c r="D20">
-        <v>0.4860976788691573</v>
+        <v>0.5922067271592368</v>
       </c>
       <c r="E20">
-        <v>0.1488759361951324</v>
+        <v>0.2004411172752505</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008300840809450567</v>
+        <v>0.002631630026159754</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.02839258615063</v>
+        <v>2.522237695531331</v>
       </c>
       <c r="J20">
-        <v>0.04655003082366704</v>
+        <v>0.076341441584308</v>
       </c>
       <c r="K20">
-        <v>2.784093703544954</v>
+        <v>1.945127270167177</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8494392456451081</v>
+        <v>0.7372543383001684</v>
       </c>
       <c r="N20">
-        <v>3.166721236418311</v>
+        <v>4.522525514565388</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.238039089860649</v>
+        <v>1.347033682739266</v>
       </c>
       <c r="C21">
-        <v>0.9190094005975311</v>
+        <v>0.677483924766733</v>
       </c>
       <c r="D21">
-        <v>0.5354471599619046</v>
+        <v>0.600318322066812</v>
       </c>
       <c r="E21">
-        <v>0.1629624857423693</v>
+        <v>0.2025584418262412</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008194690364090456</v>
+        <v>0.002625877167428329</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.166671408515967</v>
+        <v>2.55084724188896</v>
       </c>
       <c r="J21">
-        <v>0.0501839748635895</v>
+        <v>0.07674856012044273</v>
       </c>
       <c r="K21">
-        <v>3.142750152201813</v>
+        <v>2.019949552021217</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9519291606090476</v>
+        <v>0.7571852387740634</v>
       </c>
       <c r="N21">
-        <v>3.254374017771795</v>
+        <v>4.545569633712631</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.412783599465797</v>
+        <v>1.383658994300674</v>
       </c>
       <c r="C22">
-        <v>0.9858857341913563</v>
+        <v>0.6909663305441427</v>
       </c>
       <c r="D22">
-        <v>0.5688054453012512</v>
+        <v>0.6058609033509015</v>
       </c>
       <c r="E22">
-        <v>0.1725032329040346</v>
+        <v>0.2040197968608126</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008125871794977257</v>
+        <v>0.002622255844827752</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.260958542440463</v>
+        <v>2.570234961425712</v>
       </c>
       <c r="J22">
-        <v>0.05265844024786759</v>
+        <v>0.07704077834168288</v>
       </c>
       <c r="K22">
-        <v>3.383894685266853</v>
+        <v>2.069839162798644</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.020960181969748</v>
+        <v>0.7705625764412787</v>
       </c>
       <c r="N22">
-        <v>3.315707462122333</v>
+        <v>4.561321024709201</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.319063334528892</v>
+        <v>1.364048960065531</v>
       </c>
       <c r="C23">
-        <v>0.9499762214830412</v>
+        <v>0.6837424054152734</v>
       </c>
       <c r="D23">
-        <v>0.5508920555575116</v>
+        <v>0.6028806334611261</v>
       </c>
       <c r="E23">
-        <v>0.1673781056956258</v>
+        <v>0.2032327415990736</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008162559869150576</v>
+        <v>0.002624175982879637</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.210249450985444</v>
+        <v>2.559824136627455</v>
       </c>
       <c r="J23">
-        <v>0.05132797302003311</v>
+        <v>0.07688242274972268</v>
       </c>
       <c r="K23">
-        <v>3.254517965437572</v>
+        <v>2.043121391965258</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9839131000062977</v>
+        <v>0.7633906252270748</v>
       </c>
       <c r="N23">
-        <v>3.28257569512644</v>
+        <v>4.552850845885359</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.973458574204642</v>
+        <v>1.291147456380315</v>
       </c>
       <c r="C24">
-        <v>0.8184132833557669</v>
+        <v>0.6569986807056694</v>
       </c>
       <c r="D24">
-        <v>0.4853079936802942</v>
+        <v>0.5920782143560075</v>
       </c>
       <c r="E24">
-        <v>0.1486508230652923</v>
+        <v>0.2004078188456226</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008302587153086885</v>
+        <v>0.002631726401346141</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.026192599039959</v>
+        <v>2.521781703934579</v>
       </c>
       <c r="J24">
-        <v>0.04649216753876573</v>
+        <v>0.07633522853581809</v>
       </c>
       <c r="K24">
-        <v>2.778333497755369</v>
+        <v>1.94392097637575</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8477951685209533</v>
+        <v>0.7369344947751912</v>
       </c>
       <c r="N24">
-        <v>3.165351282754159</v>
+        <v>4.522160494995347</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.616770703059558</v>
+        <v>1.215417184364469</v>
       </c>
       <c r="C25">
-        <v>0.6841723120837457</v>
+        <v>0.6294552419624324</v>
       </c>
       <c r="D25">
-        <v>0.4185589100408436</v>
+        <v>0.5814594234021229</v>
       </c>
       <c r="E25">
-        <v>0.1296630690971909</v>
+        <v>0.1976931153822008</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000845686472829823</v>
+        <v>0.002640469758555028</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.841907507126095</v>
+        <v>2.483695603157912</v>
       </c>
       <c r="J25">
-        <v>0.04163984723621894</v>
+        <v>0.07585711898344627</v>
       </c>
       <c r="K25">
-        <v>2.288514467129573</v>
+        <v>1.841136963254058</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.708261759486831</v>
+        <v>0.7098990525810791</v>
       </c>
       <c r="N25">
-        <v>3.053869336644937</v>
+        <v>4.492005106474807</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_205/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_205/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.162124713418109</v>
+        <v>1.364604901904244</v>
       </c>
       <c r="C2">
-        <v>0.6102799498593754</v>
+        <v>0.5903552204602818</v>
       </c>
       <c r="D2">
-        <v>0.5745248940500431</v>
+        <v>0.3721169721840454</v>
       </c>
       <c r="E2">
-        <v>0.1959789392898088</v>
+        <v>0.1165094176265313</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00264742864926391</v>
+        <v>0.0008574074889213635</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.458167271194625</v>
+        <v>1.716007722960512</v>
       </c>
       <c r="J2">
-        <v>0.07560126133407863</v>
+        <v>0.03831898121062949</v>
       </c>
       <c r="K2">
-        <v>1.769038056958266</v>
+        <v>1.94338771937575</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6912718120050485</v>
+        <v>0.6103407613561558</v>
       </c>
       <c r="N2">
-        <v>4.47231331304269</v>
+        <v>2.982337935449692</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.127532595743162</v>
+        <v>1.198789389544316</v>
       </c>
       <c r="C3">
-        <v>0.5979660578902894</v>
+        <v>0.5292407559582273</v>
       </c>
       <c r="D3">
-        <v>0.5703747096809337</v>
+        <v>0.3420187110217654</v>
       </c>
       <c r="E3">
-        <v>0.194994247533419</v>
+        <v>0.1080187594807676</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002652472904587884</v>
+        <v>0.0008656124854568529</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.442424863397079</v>
+        <v>1.635738417129787</v>
       </c>
       <c r="J3">
-        <v>0.07548774947014181</v>
+        <v>0.03619949659783472</v>
       </c>
       <c r="K3">
-        <v>1.722387080737406</v>
+        <v>1.717060702409867</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6794398837051716</v>
+        <v>0.5463633693281977</v>
       </c>
       <c r="N3">
-        <v>4.460522937760828</v>
+        <v>2.939457120811937</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.107040958900626</v>
+        <v>1.099063193815994</v>
       </c>
       <c r="C4">
-        <v>0.5907390937300647</v>
+        <v>0.4927395449280425</v>
       </c>
       <c r="D4">
-        <v>0.568096960883139</v>
+        <v>0.3241263736681077</v>
       </c>
       <c r="E4">
-        <v>0.1944768266509378</v>
+        <v>0.102987680604631</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002655732952265429</v>
+        <v>0.0008707899565800864</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.433524813918652</v>
+        <v>1.588640160096531</v>
       </c>
       <c r="J4">
-        <v>0.07544756848385248</v>
+        <v>0.03495523659963595</v>
       </c>
       <c r="K4">
-        <v>1.69482752102266</v>
+        <v>1.581214224338822</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6725640487035918</v>
+        <v>0.5080771641335318</v>
       </c>
       <c r="N4">
-        <v>4.454047114754729</v>
+        <v>2.915602639401868</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.098878206224867</v>
+        <v>1.058891665206829</v>
       </c>
       <c r="C5">
-        <v>0.5878777411807334</v>
+        <v>0.4780963212578229</v>
       </c>
       <c r="D5">
-        <v>0.5672367437112769</v>
+        <v>0.3169707766627994</v>
       </c>
       <c r="E5">
-        <v>0.1942878899563212</v>
+        <v>0.100979685116851</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002657102538213696</v>
+        <v>0.0008729363447854617</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.430090279845572</v>
+        <v>1.569956011240521</v>
       </c>
       <c r="J5">
-        <v>0.07543861634200155</v>
+        <v>0.03446153318585488</v>
       </c>
       <c r="K5">
-        <v>1.683868834619346</v>
+        <v>1.526557320222594</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6698597686181031</v>
+        <v>0.4927014586634257</v>
       </c>
       <c r="N5">
-        <v>4.451599767902593</v>
+        <v>2.906465273354527</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.09753411735565</v>
+        <v>1.052247889139409</v>
       </c>
       <c r="C6">
-        <v>0.5874076635872996</v>
+        <v>0.4756780752525458</v>
       </c>
       <c r="D6">
-        <v>0.5670980105391266</v>
+        <v>0.3157904506710878</v>
       </c>
       <c r="E6">
-        <v>0.1942578406946147</v>
+        <v>0.1006487081427565</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002657332442407526</v>
+        <v>0.0008732949970143545</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.429531585256996</v>
+        <v>1.566883105557352</v>
       </c>
       <c r="J6">
-        <v>0.07543757811788154</v>
+        <v>0.03438033170490229</v>
       </c>
       <c r="K6">
-        <v>1.68206556740472</v>
+        <v>1.517521664555147</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.669416620450825</v>
+        <v>0.4901613250538261</v>
       </c>
       <c r="N6">
-        <v>4.451204948965682</v>
+        <v>2.904982190606233</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.106930113408595</v>
+        <v>1.098519604470738</v>
       </c>
       <c r="C7">
-        <v>0.5907001659784612</v>
+        <v>0.4925411575550243</v>
       </c>
       <c r="D7">
-        <v>0.5680850844665883</v>
+        <v>0.3240293368868379</v>
       </c>
       <c r="E7">
-        <v>0.1944741898531817</v>
+        <v>0.1029604337355607</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002655751256557509</v>
+        <v>0.0008708187537619691</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.433477716317014</v>
+        <v>1.588386171326889</v>
       </c>
       <c r="J7">
-        <v>0.07544741770087526</v>
+        <v>0.03494852560692863</v>
       </c>
       <c r="K7">
-        <v>1.694678627589212</v>
+        <v>1.580474365920537</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6725271825268493</v>
+        <v>0.5078689166659345</v>
       </c>
       <c r="N7">
-        <v>4.454013333733499</v>
+        <v>2.915477095926406</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.150041862363878</v>
+        <v>1.306963385142552</v>
       </c>
       <c r="C8">
-        <v>0.6059646815511996</v>
+        <v>0.5690542220001191</v>
       </c>
       <c r="D8">
-        <v>0.5730377501395481</v>
+        <v>0.3616093645400582</v>
       </c>
       <c r="E8">
-        <v>0.1956213176093264</v>
+        <v>0.1135417528304323</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002649134191975339</v>
+        <v>0.0008602084986054637</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.452580162279517</v>
+        <v>1.68785096504206</v>
       </c>
       <c r="J8">
-        <v>0.07555599615478314</v>
+        <v>0.03757568976224235</v>
       </c>
       <c r="K8">
-        <v>1.752727360097566</v>
+        <v>1.86465083589087</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6871113297677098</v>
+        <v>0.5880593701139887</v>
       </c>
       <c r="N8">
-        <v>4.468089281431531</v>
+        <v>2.967014747371451</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.240541762173876</v>
+        <v>1.735087453610333</v>
       </c>
       <c r="C9">
-        <v>0.6385606024073809</v>
+        <v>0.7285144113362492</v>
       </c>
       <c r="D9">
-        <v>0.5848987635920651</v>
+        <v>0.4405782093293453</v>
       </c>
       <c r="E9">
-        <v>0.1985632732808718</v>
+        <v>0.1359173459782603</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002637443983294372</v>
+        <v>0.0008404385997668639</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.496133012589397</v>
+        <v>1.902311584876301</v>
       </c>
       <c r="J9">
-        <v>0.07600321589249859</v>
+        <v>0.0432314685681483</v>
       </c>
       <c r="K9">
-        <v>1.875200642420879</v>
+        <v>2.450793200164611</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7188065256581098</v>
+        <v>0.7544258994831949</v>
       </c>
       <c r="N9">
-        <v>4.501771262172582</v>
+        <v>3.089640308864006</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.31070448729696</v>
+        <v>2.065820512364155</v>
       </c>
       <c r="C10">
-        <v>0.6641541574429368</v>
+        <v>0.8534367231706597</v>
       </c>
       <c r="D10">
-        <v>0.5949287013381479</v>
+        <v>0.5027567832912894</v>
       </c>
       <c r="E10">
-        <v>0.2011483484733496</v>
+        <v>0.1536271790533306</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002629630176996688</v>
+        <v>0.0008264368895026915</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.531874232570885</v>
+        <v>2.074900068606482</v>
       </c>
       <c r="J10">
-        <v>0.07647491320045319</v>
+        <v>0.04777290194587991</v>
       </c>
       <c r="K10">
-        <v>1.970511962620549</v>
+        <v>2.905447963243034</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7439965303207217</v>
+        <v>0.8840912373847942</v>
       </c>
       <c r="N10">
-        <v>4.530257327458656</v>
+        <v>3.195870295186637</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.343430230659578</v>
+        <v>2.220912272809585</v>
       </c>
       <c r="C11">
-        <v>0.6761597198528193</v>
+        <v>0.9124730893676087</v>
       </c>
       <c r="D11">
-        <v>0.5997786515634402</v>
+        <v>0.532187586874187</v>
       </c>
       <c r="E11">
-        <v>0.2024167233769276</v>
+        <v>0.1620309906959321</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002626241858194065</v>
+        <v>0.0008201533354606754</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.548953222665006</v>
+        <v>2.157491980427835</v>
       </c>
       <c r="J11">
-        <v>0.07672065606275424</v>
+        <v>0.04994292459356586</v>
       </c>
       <c r="K11">
-        <v>2.015043617248693</v>
+        <v>3.119134761469468</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7558732878178915</v>
+        <v>0.9451738637952332</v>
       </c>
       <c r="N11">
-        <v>4.544036200921113</v>
+        <v>3.248466827775104</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.355939460656543</v>
+        <v>2.280414803756969</v>
       </c>
       <c r="C12">
-        <v>0.680758458163524</v>
+        <v>0.9351959274862907</v>
       </c>
       <c r="D12">
-        <v>0.6016565954921589</v>
+        <v>0.5435198860392916</v>
       </c>
       <c r="E12">
-        <v>0.2029103345794923</v>
+        <v>0.1652700521221888</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.00262498254774525</v>
+        <v>0.0008177836868590305</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.55553896672113</v>
+        <v>2.189431826937408</v>
       </c>
       <c r="J12">
-        <v>0.07681819837301873</v>
+        <v>0.0507815476577953</v>
       </c>
       <c r="K12">
-        <v>2.032076387263999</v>
+        <v>3.201195104086707</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7604310189881147</v>
+        <v>0.9686515285436315</v>
       </c>
       <c r="N12">
-        <v>4.549372424515326</v>
+        <v>3.269071348228124</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.353240176383622</v>
+        <v>2.267563684810568</v>
       </c>
       <c r="C13">
-        <v>0.6797656980608622</v>
+        <v>0.9302849770181467</v>
       </c>
       <c r="D13">
-        <v>0.6012503055608249</v>
+        <v>0.541070540696353</v>
       </c>
       <c r="E13">
-        <v>0.2028034345506384</v>
+        <v>0.164569823136425</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002625252707692309</v>
+        <v>0.000818293641350905</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.554115341469057</v>
+        <v>2.182522139045574</v>
       </c>
       <c r="J13">
-        <v>0.07679699137192131</v>
+        <v>0.05060015127117623</v>
       </c>
       <c r="K13">
-        <v>2.028400520037962</v>
+        <v>3.183468481185344</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7594467467203572</v>
+        <v>0.963578975865083</v>
       </c>
       <c r="N13">
-        <v>4.548217896731501</v>
+        <v>3.264601962968271</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.344457030995898</v>
+        <v>2.225791445937034</v>
       </c>
       <c r="C14">
-        <v>0.6765370070304755</v>
+        <v>0.9143348487193634</v>
       </c>
       <c r="D14">
-        <v>0.5999323215947641</v>
+        <v>0.5331160037470397</v>
       </c>
       <c r="E14">
-        <v>0.2024570663140679</v>
+        <v>0.1622962918175404</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002626137778224495</v>
+        <v>0.0008199582025425008</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.549492662722713</v>
+        <v>2.160105904268136</v>
       </c>
       <c r="J14">
-        <v>0.07672859102497753</v>
+        <v>0.0500115684511151</v>
       </c>
       <c r="K14">
-        <v>2.016441509987771</v>
+        <v>3.125862074524207</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7562470462396718</v>
+        <v>0.9470981505128364</v>
       </c>
       <c r="N14">
-        <v>4.544472838245213</v>
+        <v>3.250147747011084</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.33909231263732</v>
+        <v>2.20030871793341</v>
       </c>
       <c r="C15">
-        <v>0.6745661857426342</v>
+        <v>0.9046143111398806</v>
       </c>
       <c r="D15">
-        <v>0.5991304082585316</v>
+        <v>0.5282687613604651</v>
       </c>
       <c r="E15">
-        <v>0.2022466390004567</v>
+        <v>0.160911289452919</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002626683001846744</v>
+        <v>0.0008209789890285535</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.546676555884119</v>
+        <v>2.146464255192697</v>
       </c>
       <c r="J15">
-        <v>0.07668727799593</v>
+        <v>0.04965330394563239</v>
       </c>
       <c r="K15">
-        <v>2.009138381025764</v>
+        <v>3.090730114101802</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7542949909843273</v>
+        <v>0.9370498035746522</v>
       </c>
       <c r="N15">
-        <v>4.542194323817654</v>
+        <v>3.241385961549838</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.308582088349112</v>
+        <v>2.055786988026739</v>
       </c>
       <c r="C16">
-        <v>0.6633768945457064</v>
+        <v>0.849627086480524</v>
       </c>
       <c r="D16">
-        <v>0.594617531768904</v>
+        <v>0.5008583448813795</v>
       </c>
       <c r="E16">
-        <v>0.2010673181301286</v>
+        <v>0.1530855213199658</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002629854945245782</v>
+        <v>0.0008268490514677929</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.530774614708989</v>
+        <v>2.069590997413755</v>
       </c>
       <c r="J16">
-        <v>0.07645948072656594</v>
+        <v>0.04763333884614696</v>
       </c>
       <c r="K16">
-        <v>1.967625404731223</v>
+        <v>2.891633931488457</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7432287780865252</v>
+        <v>0.8801453020674614</v>
       </c>
       <c r="N16">
-        <v>4.529373396126744</v>
+        <v>3.192524990636684</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.290072418563057</v>
+        <v>1.968387000771088</v>
       </c>
       <c r="C17">
-        <v>0.6566057951290531</v>
+        <v>0.8164931424748261</v>
       </c>
       <c r="D17">
-        <v>0.5919226511128954</v>
+        <v>0.48435167321432</v>
       </c>
       <c r="E17">
-        <v>0.200367523140244</v>
+        <v>0.1483782211765892</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002631843310201315</v>
+        <v>0.0008304704182932974</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.52122960226076</v>
+        <v>2.023528950021188</v>
       </c>
       <c r="J17">
-        <v>0.07632771891403323</v>
+        <v>0.04642210716704653</v>
       </c>
       <c r="K17">
-        <v>1.942459784699935</v>
+        <v>2.771356841913445</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7365471351779362</v>
+        <v>0.8458039815545675</v>
       </c>
       <c r="N17">
-        <v>4.521718645863018</v>
+        <v>3.163693708934517</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.27950220520259</v>
+        <v>1.91854651887266</v>
       </c>
       <c r="C18">
-        <v>0.6527453795578424</v>
+        <v>0.7976399506369489</v>
       </c>
       <c r="D18">
-        <v>0.5903996633733186</v>
+        <v>0.4749637710249033</v>
       </c>
       <c r="E18">
-        <v>0.1999737167028321</v>
+        <v>0.1457029672603696</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002633002618361191</v>
+        <v>0.0008325615872228344</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.515816735528958</v>
+        <v>1.997414205888703</v>
       </c>
       <c r="J18">
-        <v>0.07625486622374211</v>
+        <v>0.04573510975016504</v>
       </c>
       <c r="K18">
-        <v>1.928095646162234</v>
+        <v>2.702812194122743</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.732743334500725</v>
+        <v>0.8262461340228171</v>
       </c>
       <c r="N18">
-        <v>4.517393028079198</v>
+        <v>3.147507942737121</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.275936362043211</v>
+        <v>1.901742177590364</v>
       </c>
       <c r="C19">
-        <v>0.6514441638880442</v>
+        <v>0.7912903129658275</v>
       </c>
       <c r="D19">
-        <v>0.5898886475659424</v>
+        <v>0.471802795952982</v>
       </c>
       <c r="E19">
-        <v>0.199841873863388</v>
+        <v>0.1448025206435055</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002633397832424271</v>
+        <v>0.0008332711117869893</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.513997275163817</v>
+        <v>1.988635079770816</v>
       </c>
       <c r="J19">
-        <v>0.07623070324305559</v>
+        <v>0.04550411071732441</v>
       </c>
       <c r="K19">
-        <v>1.92325114419063</v>
+        <v>2.679708892583506</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7314621774949188</v>
+        <v>0.8196562716616427</v>
       </c>
       <c r="N19">
-        <v>4.515941691289953</v>
+        <v>3.142093863346531</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.292034929410875</v>
+        <v>1.977645685094558</v>
       </c>
       <c r="C20">
-        <v>0.6573230545041042</v>
+        <v>0.8199987960209683</v>
       </c>
       <c r="D20">
-        <v>0.5922067271592368</v>
+        <v>0.4860976788691573</v>
       </c>
       <c r="E20">
-        <v>0.2004411172752505</v>
+        <v>0.1488759361951182</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002631630026159754</v>
+        <v>0.0008300840810114076</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.522237695531331</v>
+        <v>2.02839258615063</v>
       </c>
       <c r="J20">
-        <v>0.076341441584308</v>
+        <v>0.04655003082365994</v>
       </c>
       <c r="K20">
-        <v>1.945127270167177</v>
+        <v>2.784093703544983</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7372543383001684</v>
+        <v>0.849439245645101</v>
       </c>
       <c r="N20">
-        <v>4.522525514565388</v>
+        <v>3.166721236418311</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.347033682739266</v>
+        <v>2.238039089860706</v>
       </c>
       <c r="C21">
-        <v>0.677483924766733</v>
+        <v>0.9190094005977016</v>
       </c>
       <c r="D21">
-        <v>0.600318322066812</v>
+        <v>0.5354471599619046</v>
       </c>
       <c r="E21">
-        <v>0.2025584418262412</v>
+        <v>0.1629624857423622</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002625877167428329</v>
+        <v>0.0008194690363954091</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.55084724188896</v>
+        <v>2.166671408515995</v>
       </c>
       <c r="J21">
-        <v>0.07674856012044273</v>
+        <v>0.05018397486357884</v>
       </c>
       <c r="K21">
-        <v>2.019949552021217</v>
+        <v>3.142750152201813</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7571852387740634</v>
+        <v>0.9519291606090547</v>
       </c>
       <c r="N21">
-        <v>4.545569633712631</v>
+        <v>3.254374017771795</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.383658994300674</v>
+        <v>2.41278359946574</v>
       </c>
       <c r="C22">
-        <v>0.6909663305441427</v>
+        <v>0.9858857341913279</v>
       </c>
       <c r="D22">
-        <v>0.6058609033509015</v>
+        <v>0.5688054453013649</v>
       </c>
       <c r="E22">
-        <v>0.2040197968608126</v>
+        <v>0.172503232904063</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002622255844827752</v>
+        <v>0.0008125871794940432</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.570234961425712</v>
+        <v>2.260958542440449</v>
       </c>
       <c r="J22">
-        <v>0.07704077834168288</v>
+        <v>0.05265844024769706</v>
       </c>
       <c r="K22">
-        <v>2.069839162798644</v>
+        <v>3.383894685266796</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7705625764412787</v>
+        <v>1.02096018196972</v>
       </c>
       <c r="N22">
-        <v>4.561321024709201</v>
+        <v>3.315707462122276</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.364048960065531</v>
+        <v>2.319063334528948</v>
       </c>
       <c r="C23">
-        <v>0.6837424054152734</v>
+        <v>0.9499762214835243</v>
       </c>
       <c r="D23">
-        <v>0.6028806334611261</v>
+        <v>0.5508920555579664</v>
       </c>
       <c r="E23">
-        <v>0.2032327415990736</v>
+        <v>0.1673781056956614</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002624175982879637</v>
+        <v>0.0008162559869895336</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.559824136627455</v>
+        <v>2.210249450985458</v>
       </c>
       <c r="J23">
-        <v>0.07688242274972268</v>
+        <v>0.05132797301999403</v>
       </c>
       <c r="K23">
-        <v>2.043121391965258</v>
+        <v>3.254517965437515</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7633906252270748</v>
+        <v>0.9839131000062977</v>
       </c>
       <c r="N23">
-        <v>4.552850845885359</v>
+        <v>3.282575695126411</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.291147456380315</v>
+        <v>1.973458574204585</v>
       </c>
       <c r="C24">
-        <v>0.6569986807056694</v>
+        <v>0.8184132833557101</v>
       </c>
       <c r="D24">
-        <v>0.5920782143560075</v>
+        <v>0.4853079936801237</v>
       </c>
       <c r="E24">
-        <v>0.2004078188456226</v>
+        <v>0.1486508230652746</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002631726401346141</v>
+        <v>0.0008302587153639609</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.521781703934579</v>
+        <v>2.026192599039945</v>
       </c>
       <c r="J24">
-        <v>0.07633522853581809</v>
+        <v>0.04649216753872309</v>
       </c>
       <c r="K24">
-        <v>1.94392097637575</v>
+        <v>2.778333497755426</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7369344947751912</v>
+        <v>0.8477951685209533</v>
       </c>
       <c r="N24">
-        <v>4.522160494995347</v>
+        <v>3.165351282754102</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.215417184364469</v>
+        <v>1.616770703059416</v>
       </c>
       <c r="C25">
-        <v>0.6294552419624324</v>
+        <v>0.6841723120837457</v>
       </c>
       <c r="D25">
-        <v>0.5814594234021229</v>
+        <v>0.4185589100411278</v>
       </c>
       <c r="E25">
-        <v>0.1976931153822008</v>
+        <v>0.12966306909723</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002640469758555028</v>
+        <v>0.0008456864727731938</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.483695603157912</v>
+        <v>1.841907507126137</v>
       </c>
       <c r="J25">
-        <v>0.07585711898344627</v>
+        <v>0.04163984723652447</v>
       </c>
       <c r="K25">
-        <v>1.841136963254058</v>
+        <v>2.288514467129517</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7098990525810791</v>
+        <v>0.7082617594868523</v>
       </c>
       <c r="N25">
-        <v>4.492005106474807</v>
+        <v>3.053869336644993</v>
       </c>
       <c r="O25">
         <v>0</v>
